--- a/desktop-src/tocParsingErrorsList.xlsx
+++ b/desktop-src/tocParsingErrorsList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Item1</t>
   </si>
@@ -20,91 +20,196 @@
     <t>Item2</t>
   </si>
   <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>&lt;!-- ERROR:# Table of Contents--&gt;</t>
+  </si>
+  <si>
+    <t>Sens</t>
+  </si>
+  <si>
+    <t>gdiplus</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>dnacc</t>
+  </si>
+  <si>
+    <t>tablet</t>
+  </si>
+  <si>
     <t>Shutdown</t>
   </si>
   <si>
-    <t>&lt;!-- ERROR:# Table of Contents--&gt;</t>
-  </si>
-  <si>
-    <t>shell</t>
-  </si>
-  <si>
-    <t>Sens</t>
+    <t>direct3d10</t>
+  </si>
+  <si>
+    <t>direct3d9</t>
+  </si>
+  <si>
+    <t>netxp</t>
+  </si>
+  <si>
+    <t>SecCrypto</t>
+  </si>
+  <si>
+    <t>kernel</t>
+  </si>
+  <si>
+    <t>powermeter</t>
+  </si>
+  <si>
+    <t>IpHlp</t>
+  </si>
+  <si>
+    <t>Intl</t>
+  </si>
+  <si>
+    <t>Input_Radial</t>
+  </si>
+  <si>
+    <t>Input_SourceId</t>
+  </si>
+  <si>
+    <t>netvista</t>
+  </si>
+  <si>
+    <t>hid</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>Msi</t>
+  </si>
+  <si>
+    <t>Input_PointerDevice</t>
+  </si>
+  <si>
+    <t>apiindex</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <t>ProcThread</t>
+  </si>
+  <si>
+    <t>xaudio2</t>
+  </si>
+  <si>
+    <t>xaml_diagnostics</t>
+  </si>
+  <si>
+    <t>cmpapi</t>
+  </si>
+  <si>
+    <t>CIMWin32Prov</t>
+  </si>
+  <si>
+    <t>WinRT</t>
+  </si>
+  <si>
+    <t>NativeWiFi</t>
+  </si>
+  <si>
+    <t>iSCSIDisc</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>winmsg</t>
+  </si>
+  <si>
+    <t>bltooth</t>
   </si>
   <si>
     <t>SecSLApi</t>
   </si>
   <si>
+    <t>NodePages</t>
+  </si>
+  <si>
+    <t>MsCS</t>
+  </si>
+  <si>
+    <t>&lt;!-- ERROR:####### [CLUSCTL_CLUSTER_SET_DNS_DOMAIN](clusctl-cluster-set-dns-domain.md)--&gt;</t>
+  </si>
+  <si>
+    <t>dxmath</t>
+  </si>
+  <si>
+    <t>CoreAudio</t>
+  </si>
+  <si>
+    <t>DevNotes</t>
+  </si>
+  <si>
+    <t>direct3ddxgi</t>
+  </si>
+  <si>
+    <t>input_ink</t>
+  </si>
+  <si>
+    <t>Win7AppQual</t>
+  </si>
+  <si>
+    <t>AspNetProv</t>
+  </si>
+  <si>
+    <t>Sync</t>
+  </si>
+  <si>
+    <t>SecCNG</t>
+  </si>
+  <si>
+    <t>ifsk</t>
+  </si>
+  <si>
+    <t>WinSock</t>
+  </si>
+  <si>
+    <t>gdi</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>wic</t>
+  </si>
+  <si>
+    <t>wia</t>
+  </si>
+  <si>
+    <t>MachineLearning</t>
+  </si>
+  <si>
+    <t>serports</t>
+  </si>
+  <si>
+    <t>sensors</t>
+  </si>
+  <si>
     <t>SecProv</t>
   </si>
   <si>
-    <t>Fax</t>
-  </si>
-  <si>
-    <t>dnacc</t>
-  </si>
-  <si>
-    <t>display</t>
-  </si>
-  <si>
-    <t>direct3d9</t>
-  </si>
-  <si>
-    <t>SecCrypto</t>
-  </si>
-  <si>
-    <t>netxp</t>
-  </si>
-  <si>
-    <t>serports</t>
-  </si>
-  <si>
-    <t>sensors</t>
-  </si>
-  <si>
-    <t>Msi</t>
-  </si>
-  <si>
-    <t>Input_Radial</t>
-  </si>
-  <si>
-    <t>input_ink</t>
-  </si>
-  <si>
-    <t>powermeter</t>
-  </si>
-  <si>
-    <t>netvista</t>
-  </si>
-  <si>
-    <t>CIMWin32Prov</t>
-  </si>
-  <si>
-    <t>AspNetProv</t>
-  </si>
-  <si>
-    <t>tablet</t>
-  </si>
-  <si>
-    <t>direct3d10</t>
-  </si>
-  <si>
-    <t>audio</t>
-  </si>
-  <si>
-    <t>IpHlp</t>
-  </si>
-  <si>
-    <t>Intl</t>
-  </si>
-  <si>
-    <t>Input_SourceId</t>
-  </si>
-  <si>
-    <t>Input_PointerDevice</t>
-  </si>
-  <si>
-    <t>gdiplus</t>
+    <t>ETW</t>
+  </si>
+  <si>
+    <t>Clfs</t>
   </si>
   <si>
     <t>SecAuthN</t>
@@ -113,115 +218,13 @@
     <t>search</t>
   </si>
   <si>
-    <t>gdi</t>
-  </si>
-  <si>
-    <t>DevNotes</t>
-  </si>
-  <si>
-    <t>iSCSIDisc</t>
-  </si>
-  <si>
-    <t>MsCS</t>
-  </si>
-  <si>
-    <t>&lt;!-- ERROR:####### [CLUSCTL_CLUSTER_SET_DNS_DOMAIN](clusctl-cluster-set-dns-domain.md)--&gt;</t>
-  </si>
-  <si>
-    <t>dxmath</t>
-  </si>
-  <si>
     <t>Debug</t>
   </si>
   <si>
-    <t>apiindex</t>
-  </si>
-  <si>
-    <t>CoreAudio</t>
-  </si>
-  <si>
-    <t>cmpapi</t>
-  </si>
-  <si>
     <t>DirectShow</t>
   </si>
   <si>
     <t>directmanipulation</t>
-  </si>
-  <si>
-    <t>Clfs</t>
-  </si>
-  <si>
-    <t>properties</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>ifsk</t>
-  </si>
-  <si>
-    <t>kernel</t>
-  </si>
-  <si>
-    <t>xaml_diagnostics</t>
-  </si>
-  <si>
-    <t>WinRT</t>
-  </si>
-  <si>
-    <t>direct3ddxgi</t>
-  </si>
-  <si>
-    <t>VSS</t>
-  </si>
-  <si>
-    <t>winmsg</t>
-  </si>
-  <si>
-    <t>ETW</t>
-  </si>
-  <si>
-    <t>hid</t>
-  </si>
-  <si>
-    <t>NodePages</t>
-  </si>
-  <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>stream</t>
-  </si>
-  <si>
-    <t>wic</t>
-  </si>
-  <si>
-    <t>WinSock</t>
-  </si>
-  <si>
-    <t>NativeWiFi</t>
-  </si>
-  <si>
-    <t>xaudio2</t>
-  </si>
-  <si>
-    <t>Sync</t>
-  </si>
-  <si>
-    <t>ProcThread</t>
-  </si>
-  <si>
-    <t>wia</t>
-  </si>
-  <si>
-    <t>SecCNG</t>
-  </si>
-  <si>
-    <t>bltooth</t>
-  </si>
-  <si>
-    <t>Win7AppQual</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -550,12 +553,12 @@
         <v>36</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
@@ -563,7 +566,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
@@ -571,7 +574,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
@@ -579,7 +582,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
@@ -587,7 +590,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
@@ -595,7 +598,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
@@ -603,10 +606,10 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -806,6 +809,14 @@
         <v>69</v>
       </c>
       <c r="B67" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="0" t="s">
         <v>3</v>
       </c>
     </row>
